--- a/Data/EC/NIT-9009368860.xlsx
+++ b/Data/EC/NIT-9009368860.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6655DC9-0D2D-4618-A290-0C2BA5D105D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9657B9A-9FBC-451F-8CC2-D9ADEBC1C01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C337AE0-C597-4494-8F72-BADE7C1F3070}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D456896-E741-4B01-A9C1-79284B1A7E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,127 +71,133 @@
     <t>OTTO MARIO OSPINA BERRIO</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
     <t>1705</t>
   </si>
   <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
+    <t>1047377698</t>
+  </si>
+  <si>
+    <t>JAIME ALFONSO HOLLMAN GONZALEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -235,7 +241,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A1778E-E91A-AD36-609B-EC11F85B0C63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C92382D-D8BF-C6FE-3E27-0B4AF76DD366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,32 +962,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BDED8F-8519-4DB9-AFF5-A09E0519B681}">
-  <dimension ref="B2:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2E11E-C71A-4743-8061-BBE56A516449}">
+  <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +996,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1001,7 +1007,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1012,7 +1018,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1023,10 +1029,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1039,8 +1045,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1055,15 +1061,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1128860</v>
+        <v>1218936</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1071,17 +1077,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
         <v>41</v>
@@ -1091,7 +1097,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1111,16 +1117,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>25740</v>
       </c>
       <c r="G16" s="18">
         <v>689455</v>
@@ -1143,7 +1149,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1172,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1195,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1218,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1241,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1264,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1287,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1310,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1333,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1356,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1379,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1402,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1425,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1448,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1471,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1494,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1517,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1540,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1563,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1586,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1609,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1632,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1649,7 +1655,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1678,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1718,7 +1724,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1747,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1770,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1793,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1810,7 +1816,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1833,7 +1839,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1862,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1885,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1902,7 +1908,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1925,7 +1931,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1954,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1977,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +2000,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2023,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2040,57 +2046,126 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="22" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="24">
-        <v>25740</v>
-      </c>
-      <c r="G56" s="24">
-        <v>689455</v>
-      </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="H62" s="1" t="s">
+      <c r="F56" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G56" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="24">
+        <v>27578</v>
+      </c>
+      <c r="G59" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="H64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009368860.xlsx
+++ b/Data/EC/NIT-9009368860.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9657B9A-9FBC-451F-8CC2-D9ADEBC1C01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72835CF3-7608-48E5-B26D-49E131009D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D456896-E741-4B01-A9C1-79284B1A7E52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{046A9226-D30F-41E4-ABE1-B74B2ECFD53A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,133 +71,127 @@
     <t>OTTO MARIO OSPINA BERRIO</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1047377698</t>
-  </si>
-  <si>
-    <t>JAIME ALFONSO HOLLMAN GONZALEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -241,7 +235,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,7 +290,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,9 +305,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,23 +505,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +549,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,13 +590,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -611,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C92382D-D8BF-C6FE-3E27-0B4AF76DD366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD94A90E-4C2F-C6D8-0F4B-31AAC5F9FFB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -633,7 +627,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -962,32 +956,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2E11E-C71A-4743-8061-BBE56A516449}">
-  <dimension ref="B2:J65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D271C515-B26F-48F6-B0E8-67B2631E5042}">
+  <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +990,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1007,7 +1001,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1018,7 +1012,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1029,10 +1023,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1045,8 +1039,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1061,15 +1055,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1218936</v>
+        <v>1128860</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1077,17 +1071,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
         <v>41</v>
@@ -1097,7 +1091,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1117,16 +1111,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25740</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>689455</v>
@@ -1149,7 +1143,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1166,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1189,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1212,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1235,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1258,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1281,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1304,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1327,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1350,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1373,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1402,7 +1396,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1419,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1442,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1465,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +1488,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1511,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1534,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1557,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1586,7 +1580,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +1603,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1626,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1649,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1678,7 +1672,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1701,7 +1695,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1718,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1741,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +1764,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1793,7 +1787,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1816,7 +1810,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1839,7 +1833,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1856,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1885,7 +1879,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1902,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1925,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1954,7 +1948,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +1971,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +1994,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2017,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2046,126 +2040,57 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="16" t="s">
+    <row r="56" spans="2:10">
+      <c r="B56" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G56" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="24">
-        <v>27578</v>
-      </c>
-      <c r="G59" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="32"/>
-      <c r="H64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="32" t="s">
+      <c r="F56" s="24">
+        <v>25740</v>
+      </c>
+      <c r="G56" s="24">
+        <v>689455</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="H62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="H65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H61:J61"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
